--- a/medicine/Psychotrope/Éclair_(pâtisserie)/Éclair_(pâtisserie).xlsx
+++ b/medicine/Psychotrope/Éclair_(pâtisserie)/Éclair_(pâtisserie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89clair_(p%C3%A2tisserie)</t>
+          <t>Éclair_(pâtisserie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Un éclair, anciennement appelé pain à la duchesse (avant 1850)[1] ou petite duchesse[2], est une pâtisserie composée d'une pâte à choux farcie d'une crème pâtissière aromatisée à la vanille et recouvert d'un glaçage sur le dessus.
+Un éclair, anciennement appelé pain à la duchesse (avant 1850) ou petite duchesse, est une pâtisserie composée d'une pâte à choux farcie d'une crème pâtissière aromatisée à la vanille et recouvert d'un glaçage sur le dessus.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89clair_(p%C3%A2tisserie)</t>
+          <t>Éclair_(pâtisserie)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aujourd'hui, l'éclair le plus commun est composé de pâte à choux, enveloppant la crème pâtissière ; cependant, il existe aussi des versions faites à base de petit four, et l'intérieur peut être de la crème chiboust, de la crème chantilly, crème de marrons, ou un salpicon de fruits[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aujourd'hui, l'éclair le plus commun est composé de pâte à choux, enveloppant la crème pâtissière ; cependant, il existe aussi des versions faites à base de petit four, et l'intérieur peut être de la crème chiboust, de la crème chantilly, crème de marrons, ou un salpicon de fruits.
 La crème est généralement à la vanille, mais peut aussi être aromatisée à la pistache ou au café. Des variantes peuvent également parfumer la crème pâtissière et le fondant avec divers fruits.
-Le dessus est glacé au fondant ou au caramel ; dans ce dernier cas, on appelle ce gâteau un « bâton de Jacob »[4].
+Le dessus est glacé au fondant ou au caramel ; dans ce dernier cas, on appelle ce gâteau un « bâton de Jacob ».
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89clair_(p%C3%A2tisserie)</t>
+          <t>Éclair_(pâtisserie)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après le Dictionnaire de l'Académie française, l'éclair a été nommé ainsi parce qu'il était mangé rapidement[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après le Dictionnaire de l'Académie française, l'éclair a été nommé ainsi parce qu'il était mangé rapidement.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89clair_(p%C3%A2tisserie)</t>
+          <t>Éclair_(pâtisserie)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +592,12 @@
           <t>Records</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs équipes de pâtissiers se sont donné pour défi de confectionner les éclairs au chocolat les plus longs possibles : le record actuel, homologué par le Livre Guinness des records, est détenu par des pâtissiers suisses pour un éclair de 503 mètres réalisé en 2014[6]. Le chocolatier et pâtissier belge Jean-Philippe Darcis a supervisé la réalisation d’un éclair de 676 mètres de long fin 2016 mais, bien que validé par un huissier, le record n’apparaît pas dans le livre des records[7].
-Le record de la plus grande mosaïque d’éclairs au chocolat a quant à lui été établi à Genève par des pâtissiers suisses ayant dessiné le personnage de Titeuf sur une surface de 80,27 mètres carrés à l’aide de 23 700 éclairs de différentes couleurs[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs équipes de pâtissiers se sont donné pour défi de confectionner les éclairs au chocolat les plus longs possibles : le record actuel, homologué par le Livre Guinness des records, est détenu par des pâtissiers suisses pour un éclair de 503 mètres réalisé en 2014. Le chocolatier et pâtissier belge Jean-Philippe Darcis a supervisé la réalisation d’un éclair de 676 mètres de long fin 2016 mais, bien que validé par un huissier, le record n’apparaît pas dans le livre des records.
+Le record de la plus grande mosaïque d’éclairs au chocolat a quant à lui été établi à Genève par des pâtissiers suisses ayant dessiné le personnage de Titeuf sur une surface de 80,27 mètres carrés à l’aide de 23 700 éclairs de différentes couleurs.
 </t>
         </is>
       </c>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89clair_(p%C3%A2tisserie)</t>
+          <t>Éclair_(pâtisserie)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,9 +626,11 @@
           <t>Dans la culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 2020, la Belgique fête la « journée de l'éclair » tous les 20 novembre afin de récolter des fonds pour lutter contre le cancer de l'enfant[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2020, la Belgique fête la « journée de l'éclair » tous les 20 novembre afin de récolter des fonds pour lutter contre le cancer de l'enfant.
 </t>
         </is>
       </c>
